--- a/biology/Médecine/La_Parole_(revue)/La_Parole_(revue).xlsx
+++ b/biology/Médecine/La_Parole_(revue)/La_Parole_(revue).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La revue La Parole ou Revue internationale de Rhinologie, Otologie, Laryngologie et Phonétique expérimentale est dirigée en 1899 par Marcel Natier, docteur en médecine, fondateur du service de rhinologie, otologie et laryngologie de la polyclinique de Paris et par l’abbé Rousselot, docteur ès lettres, professeur à l’Institut catholique et directeur du laboratoire de phonétique expérimentale du Collège de France. Elle succède à la Revue internationale de Rhinologie, Otologie et Laryngologie, fondée et dirigée depuis 1891 par Marcel Natier. Elle est publiée par l'Institut de laryngologie et d'orthophonie, fondé par Natier et Rousselot, dont l'objectif est de corriger les vices de prononciation, les défauts d'oreilles et les troubles respiratoires d'origine fonctionnelle. Les articles publiés concernent : la rhinologie, la laryngologie et l'otologie, la phonétique expérimentale théorique et appliquée à la correction des troubles orthophoniques.   
 Les secrétaires de la rédaction étaient alors Paul Olivier et Adolphe Zünd-Burguet. Adolphe Zünd-Burguet assurera seul cette fonction dès 1901. Il sera ensuite remplacé en 1903 par Fauste Laclotte, professeur de phonétique expérimentale aux cours de l'Alliance française.
@@ -514,7 +526,9 @@
           <t>Année 1899</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Adjarian : Les explosives de l’ancien arménien, 119
 Dauzat : Contribution à l’étude des articulations consonantiques, 611
@@ -565,7 +579,9 @@
           <t>Année 1900</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Gauthiot : De l’accent et de la quantité en lithuanien, 143 – Du traitement phonétique du nun quiescent en persan, 438
 Gradenigo : Sur les différentes méthodes d’acoumétrie et sur la notation uniforme des résultats de l’examen auditif fonctionnel, 129
@@ -609,7 +625,9 @@
           <t>Année 1901</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bernheim : L’aphasie motrice, 225, 267, 349, 402
 Bronner : Papillomes récidivants du larynx chez un adulte, 715
@@ -659,7 +677,9 @@
           <t>Année 1902</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Abadie : Bégaiement dysarthrique, 321
 Baudon : Acné hypertrophique du nez, 425
@@ -727,7 +747,9 @@
           <t>Année 1903</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Ferreri : Verrue frangée du ventricule de Morgagni, 325 – Tumeurs symétriques des cordes vocales, 428
 King : Adénome du palais, 323
@@ -766,7 +788,9 @@
           <t>Année 1904</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Panconcelli-Calzia : De la nasalité en italien</t>
         </is>
